--- a/nes-lter-zooplankton-transect-abundance-info.xlsx
+++ b/nes-lter-zooplankton-transect-abundance-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmorkeski\Documents\nes-lter-zooplankton-transect-abundance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEC7404-6C42-441E-8E9D-5177C97B2531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B6363C-2DD0-4F3D-B88C-22335F752FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36495" yWindow="7890" windowWidth="17280" windowHeight="9960" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersStaged10m2" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="165">
   <si>
     <t>cruise</t>
   </si>
@@ -514,6 +514,30 @@
   </si>
   <si>
     <t>Not available</t>
+  </si>
+  <si>
+    <t>ecology</t>
+  </si>
+  <si>
+    <t>plankton</t>
+  </si>
+  <si>
+    <t>species interactions</t>
+  </si>
+  <si>
+    <t>population dynamics</t>
+  </si>
+  <si>
+    <t>seasonality</t>
+  </si>
+  <si>
+    <t>spatial variability</t>
+  </si>
+  <si>
+    <t>Unspecified Folsom Plankton sample splitter - McEwen et al. 1954</t>
+  </si>
+  <si>
+    <t>Star-Oddi DST centi-TD Temperature and Depth Recorder</t>
   </si>
 </sst>
 </file>
@@ -643,7 +667,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -669,6 +693,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{E992EE6B-4437-455D-B797-55FAC5C8E9D9}"/>
@@ -888,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF7C430-799F-4901-B499-401167552A37}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:G17"/>
     </sheetView>
   </sheetViews>
@@ -2809,13 +2837,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="63.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2835,16 +2866,16 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
+      <c r="A3" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
+      <c r="A4" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>42</v>
@@ -2852,15 +2883,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
+      <c r="A6" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>42</v>
@@ -2868,7 +2899,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>42</v>
@@ -2876,30 +2907,94 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="1"/>
+    <row r="26" spans="1:9">
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
